--- a/backend/proses_data.xlsx
+++ b/backend/proses_data.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Organisasi</t>
-  </si>
-  <si>
-    <t>Ekstrakurikuler</t>
-  </si>
-  <si>
-    <t>Sertifikasi Profesi</t>
-  </si>
-  <si>
-    <t>Nilai Akhir</t>
-  </si>
-  <si>
-    <t>Tempat Magang</t>
-  </si>
-  <si>
-    <t>Tempat Kerja</t>
-  </si>
-  <si>
-    <t>Durasi Mendapat Kerja dibawah 3 Bulan</t>
+    <t>jenisKelamin</t>
+  </si>
+  <si>
+    <t>organisasi</t>
+  </si>
+  <si>
+    <t>ekstrakurikuler</t>
+  </si>
+  <si>
+    <t>sertifikasiProfesi</t>
+  </si>
+  <si>
+    <t>nilaiAkhir</t>
+  </si>
+  <si>
+    <t>tempatMagang</t>
+  </si>
+  <si>
+    <t>tempatKerja</t>
+  </si>
+  <si>
+    <t>Durasi Mendapat Kerja</t>
   </si>
 </sst>
 </file>

--- a/backend/proses_data.xlsx
+++ b/backend/proses_data.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,22 +643,22 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -685,6 +685,916 @@
       </c>
       <c r="H11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
